--- a/stockfish_last/sales_data_sample.xlsx
+++ b/stockfish_last/sales_data_sample.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE051D-8C39-41D8-A3A7-D8A4F24F0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -381,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0;#,##\-0;\-;@"/>
     <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
@@ -1159,15 +1161,317 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="193">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2676,27 +2980,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.41796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="52.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:43" ht="52.2" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +3131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="23">
         <v>5671</v>
       </c>
@@ -2955,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="46">
         <v>5672</v>
       </c>
@@ -3087,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A4" s="23">
         <v>5673</v>
       </c>
@@ -3219,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A5" s="46">
         <v>5674</v>
       </c>
@@ -3351,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A6" s="23">
         <v>5675</v>
       </c>
@@ -3483,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A7" s="46">
         <v>5676</v>
       </c>
@@ -3615,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A8" s="23">
         <v>5677</v>
       </c>
@@ -3747,7 +4051,7 @@
         <v>131.61800727075004</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A9" s="46">
         <v>5678</v>
       </c>
@@ -3879,7 +4183,7 @@
         <v>131.61800727075004</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A10" s="23">
         <v>5679</v>
       </c>
@@ -4011,7 +4315,7 @@
         <v>131.61800727075004</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A11" s="46">
         <v>5680</v>
       </c>
@@ -4143,7 +4447,7 @@
         <v>131.61800727075004</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A12" s="23">
         <v>5681</v>
       </c>
@@ -4275,7 +4579,7 @@
         <v>131.61800727075004</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A13" s="46">
         <v>5682</v>
       </c>
@@ -4407,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A14" s="23">
         <v>5683</v>
       </c>
@@ -4539,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A15" s="46">
         <v>5684</v>
       </c>
@@ -4671,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A16" s="23">
         <v>5685</v>
       </c>
@@ -4803,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A17" s="46">
         <v>5686</v>
       </c>
@@ -4935,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A18" s="23">
         <v>5687</v>
       </c>
@@ -5067,7 +5371,7 @@
         <v>237.53865135000007</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A19" s="46">
         <v>5688</v>
       </c>
@@ -5199,7 +5503,7 @@
         <v>2046.3633815625008</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A20" s="23">
         <v>5689</v>
       </c>
@@ -5331,7 +5635,7 @@
         <v>520.01704755000014</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A21" s="46">
         <v>5690</v>
       </c>
@@ -5463,7 +5767,7 @@
         <v>139.63420721250006</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A22" s="23">
         <v>5691</v>
       </c>
@@ -5595,7 +5899,7 @@
         <v>142.84418898750005</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A23" s="46">
         <v>5692</v>
       </c>
@@ -5725,7 +6029,7 @@
         <v>22957.789654800006</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A24" s="23">
         <v>5693</v>
       </c>
@@ -5857,7 +6161,7 @@
         <v>7758.5259501750024</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A25" s="46">
         <v>5694</v>
       </c>
@@ -5989,7 +6293,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" thickTop="1">
+    <row r="26" spans="1:43" ht="14.7" thickTop="1">
       <c r="A26" s="23">
         <v>5695</v>
       </c>
@@ -6121,7 +6425,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" thickBot="1">
+    <row r="27" spans="1:43" ht="14.7" thickBot="1">
       <c r="A27" s="23">
         <v>61</v>
       </c>
@@ -6253,7 +6557,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A28" s="46">
         <v>5696</v>
       </c>
@@ -6385,7 +6689,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A29" s="46">
         <v>5697</v>
       </c>
@@ -6517,7 +6821,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A30" s="46">
         <v>5698</v>
       </c>
@@ -6649,7 +6953,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A31" s="46">
         <v>5699</v>
       </c>
@@ -6781,7 +7085,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A32" s="46">
         <v>5700</v>
       </c>
@@ -6913,7 +7217,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A33" s="46">
         <v>5701</v>
       </c>
@@ -7045,7 +7349,7 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:43" ht="15" thickTop="1" thickBot="1">
       <c r="A34" s="46">
         <v>5702</v>
       </c>
@@ -7177,547 +7481,1213 @@
         <v>6519.4729850250023</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="15.75" thickTop="1"/>
+    <row r="35" spans="1:43" ht="15" thickTop="1" thickBot="1">
+      <c r="A35" s="46">
+        <v>5703</v>
+      </c>
+      <c r="B35" s="24">
+        <v>1579</v>
+      </c>
+      <c r="C35" s="25">
+        <v>11</v>
+      </c>
+      <c r="D35" s="26">
+        <v>4</v>
+      </c>
+      <c r="E35" s="27">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="27" t="str">
+        <f t="shared" ref="F35:F36" si="1">E35&amp;"-"&amp;D35&amp;"-"&amp;C35</f>
+        <v>1400-4-11</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="31">
+        <v>0</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="32">
+        <v>1</v>
+      </c>
+      <c r="P35" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>0</v>
+      </c>
+      <c r="R35" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="S35" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="T35" s="33">
+        <v>0</v>
+      </c>
+      <c r="U35" s="34">
+        <v>891000</v>
+      </c>
+      <c r="V35" s="34">
+        <v>0</v>
+      </c>
+      <c r="W35" s="34">
+        <v>0</v>
+      </c>
+      <c r="X35" s="34">
+        <v>891000</v>
+      </c>
+      <c r="Y35" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="34">
+        <v>891000</v>
+      </c>
+      <c r="AD35" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE35" s="36">
+        <v>251510</v>
+      </c>
+      <c r="AF35" s="37">
+        <v>3.5426026798139238</v>
+      </c>
+      <c r="AG35" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="AH35" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="AI35" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AJ35" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK35" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="AM35" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="42">
+        <v>2.5375350000000005</v>
+      </c>
+      <c r="AO35" s="43">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="AP35" s="44">
+        <v>5.8363305000000019E-4</v>
+      </c>
+      <c r="AQ35" s="45">
+        <v>520.01704755000014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" ht="15" thickTop="1" thickBot="1">
+      <c r="A36" s="46">
+        <v>5704</v>
+      </c>
+      <c r="B36" s="24">
+        <v>1579</v>
+      </c>
+      <c r="C36" s="25">
+        <v>12</v>
+      </c>
+      <c r="D36" s="26">
+        <v>4</v>
+      </c>
+      <c r="E36" s="27">
+        <v>1400</v>
+      </c>
+      <c r="F36" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>1400-4-12</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O36" s="32">
+        <v>1</v>
+      </c>
+      <c r="P36" s="32">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="32">
+        <v>0</v>
+      </c>
+      <c r="R36" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="S36" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="T36" s="33">
+        <v>0</v>
+      </c>
+      <c r="U36" s="34">
+        <v>891000</v>
+      </c>
+      <c r="V36" s="34">
+        <v>0</v>
+      </c>
+      <c r="W36" s="34">
+        <v>0</v>
+      </c>
+      <c r="X36" s="34">
+        <v>891000</v>
+      </c>
+      <c r="Y36" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="34">
+        <v>891000</v>
+      </c>
+      <c r="AD36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE36" s="36">
+        <v>251510</v>
+      </c>
+      <c r="AF36" s="37">
+        <v>3.5426026798139238</v>
+      </c>
+      <c r="AG36" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="AH36" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="AI36" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AJ36" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK36" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="AM36" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="42">
+        <v>2.5375350000000005</v>
+      </c>
+      <c r="AO36" s="43">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="AP36" s="44">
+        <v>5.8363305000000019E-4</v>
+      </c>
+      <c r="AQ36" s="45">
+        <v>520.01704755000014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" ht="15" thickTop="1" thickBot="1">
+      <c r="A37" s="46">
+        <v>5705</v>
+      </c>
+      <c r="B37" s="24">
+        <v>1579</v>
+      </c>
+      <c r="C37" s="25">
+        <v>13</v>
+      </c>
+      <c r="D37" s="26">
+        <v>4</v>
+      </c>
+      <c r="E37" s="27">
+        <v>1400</v>
+      </c>
+      <c r="F37" s="27" t="str">
+        <f t="shared" ref="F37:F38" si="2">E37&amp;"-"&amp;D37&amp;"-"&amp;C37</f>
+        <v>1400-4-13</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="32">
+        <v>1</v>
+      </c>
+      <c r="P37" s="32">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="32">
+        <v>0</v>
+      </c>
+      <c r="R37" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="S37" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="T37" s="33">
+        <v>0</v>
+      </c>
+      <c r="U37" s="34">
+        <v>891000</v>
+      </c>
+      <c r="V37" s="34">
+        <v>0</v>
+      </c>
+      <c r="W37" s="34">
+        <v>0</v>
+      </c>
+      <c r="X37" s="34">
+        <v>891000</v>
+      </c>
+      <c r="Y37" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="34">
+        <v>891000</v>
+      </c>
+      <c r="AD37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE37" s="36">
+        <v>251510</v>
+      </c>
+      <c r="AF37" s="37">
+        <v>3.5426026798139238</v>
+      </c>
+      <c r="AG37" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="AH37" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="AI37" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AJ37" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK37" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="AM37" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="42">
+        <v>2.5375350000000005</v>
+      </c>
+      <c r="AO37" s="43">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="AP37" s="44">
+        <v>5.8363305000000019E-4</v>
+      </c>
+      <c r="AQ37" s="45">
+        <v>520.01704755000014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" ht="15" thickTop="1" thickBot="1">
+      <c r="A38" s="46">
+        <v>5706</v>
+      </c>
+      <c r="B38" s="24">
+        <v>1579</v>
+      </c>
+      <c r="C38" s="25">
+        <v>14</v>
+      </c>
+      <c r="D38" s="26">
+        <v>4</v>
+      </c>
+      <c r="E38" s="27">
+        <v>1400</v>
+      </c>
+      <c r="F38" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>1400-4-14</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="32">
+        <v>1</v>
+      </c>
+      <c r="P38" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Q38" s="32">
+        <v>0</v>
+      </c>
+      <c r="R38" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="S38" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="T38" s="33">
+        <v>0</v>
+      </c>
+      <c r="U38" s="34">
+        <v>891000</v>
+      </c>
+      <c r="V38" s="34">
+        <v>0</v>
+      </c>
+      <c r="W38" s="34">
+        <v>0</v>
+      </c>
+      <c r="X38" s="34">
+        <v>891000</v>
+      </c>
+      <c r="Y38" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="34">
+        <v>891000</v>
+      </c>
+      <c r="AD38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE38" s="36">
+        <v>251510</v>
+      </c>
+      <c r="AF38" s="37">
+        <v>3.5426026798139238</v>
+      </c>
+      <c r="AG38" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="AH38" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="AI38" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AJ38" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK38" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="AM38" s="41">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="42">
+        <v>2.5375350000000005</v>
+      </c>
+      <c r="AO38" s="43">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="AP38" s="44">
+        <v>5.8363305000000019E-4</v>
+      </c>
+      <c r="AQ38" s="45">
+        <v>520.01704755000014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" ht="14.7" thickTop="1"/>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="193" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2 AF4 AF6 AF8 AF10 AF12 AF14 AF16 AF18 AF20 AF22 AF24">
-    <cfRule type="containsErrors" dxfId="153" priority="154">
+    <cfRule type="containsErrors" dxfId="191" priority="192">
       <formula>ISERROR(AF2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2 G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24">
-    <cfRule type="containsText" dxfId="152" priority="142" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="190" priority="180" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="143" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="189" priority="181" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="144" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="188" priority="182" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="145" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="187" priority="183" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="146" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="186" priority="184" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="185" priority="185" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="149" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="183" priority="187" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="182" priority="188" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="151" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="181" priority="189" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="152" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="180" priority="190" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="153" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="179" priority="191" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2 G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24">
-    <cfRule type="containsText" dxfId="140" priority="141" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="178" priority="179" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2 G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24">
-    <cfRule type="containsText" dxfId="139" priority="138" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="177" priority="176" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="176" priority="177" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="140" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="175" priority="178" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2 H4:J4 H6:J6 H8:J8 H10:J10 H12:J12 H14:J14 H16:J16 H18:J18 H20:J20 H22:J22 H24:J24">
-    <cfRule type="containsBlanks" dxfId="136" priority="137">
+    <cfRule type="containsBlanks" dxfId="174" priority="175">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3 AF5 AF7 AF9 AF11 AF13 AF15 AF17 AF19 AF21 AF23 AF25">
-    <cfRule type="containsErrors" dxfId="135" priority="136">
+    <cfRule type="containsErrors" dxfId="173" priority="174">
       <formula>ISERROR(AF3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="134" priority="124" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="172" priority="162" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="125" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="171" priority="163" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="126" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="170" priority="164" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="127" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="169" priority="165" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="128" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="168" priority="166" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="165" priority="169" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="164" priority="170" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="133" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="163" priority="171" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="134" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="162" priority="172" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="135" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="161" priority="173" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="160" priority="161" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="121" priority="120" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="159" priority="158" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="121" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="158" priority="159" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="157" priority="160" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF28">
-    <cfRule type="containsErrors" dxfId="118" priority="119">
+    <cfRule type="containsErrors" dxfId="156" priority="157">
       <formula>ISERROR(AF28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="117" priority="107" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="155" priority="145" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="108" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="154" priority="146" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="109" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="153" priority="147" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="152" priority="148" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="151" priority="149" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="148" priority="152" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="146" priority="154" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="117" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="145" priority="155" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="118" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="144" priority="156" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="143" priority="144" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="142" priority="141" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29">
-    <cfRule type="containsErrors" dxfId="101" priority="102">
+    <cfRule type="containsErrors" dxfId="139" priority="140">
       <formula>ISERROR(AF29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="100" priority="90" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="138" priority="128" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="91" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="137" priority="129" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="92" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="136" priority="130" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="93" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="135" priority="131" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="94" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="134" priority="132" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="131" priority="135" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="99" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="100" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="128" priority="138" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="101" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="127" priority="139" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="125" priority="124" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30">
-    <cfRule type="containsErrors" dxfId="84" priority="85">
+    <cfRule type="containsErrors" dxfId="122" priority="123">
       <formula>ISERROR(AF30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="121" priority="111" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="120" priority="112" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="119" priority="113" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="118" priority="114" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="117" priority="115" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="114" priority="118" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="81" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="82" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="83" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="111" priority="121" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="84" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="110" priority="122" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="70" priority="69" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="108" priority="107" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF31">
-    <cfRule type="containsErrors" dxfId="67" priority="68">
+    <cfRule type="containsErrors" dxfId="105" priority="106">
       <formula>ISERROR(AF31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="66" priority="56" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="104" priority="94" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="57" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="103" priority="95" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="58" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="102" priority="96" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="100" priority="98" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="64" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="65" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="95" priority="103" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="66" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="94" priority="104" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="67" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="93" priority="105" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32">
-    <cfRule type="containsErrors" dxfId="50" priority="51">
+    <cfRule type="containsErrors" dxfId="88" priority="89">
       <formula>ISERROR(AF32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="87" priority="77" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="40" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="86" priority="78" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="85" priority="79" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="78" priority="86" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="49" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="77" priority="87" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="50" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="76" priority="88" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="74" priority="73" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33">
-    <cfRule type="containsErrors" dxfId="33" priority="34">
+    <cfRule type="containsErrors" dxfId="71" priority="72">
       <formula>ISERROR(AF33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="70" priority="60" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="69" priority="61" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="68" priority="62" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="67" priority="63" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="63" priority="67" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="62" priority="68" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="61" priority="69" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="60" priority="70" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="59" priority="71" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="containsErrors" dxfId="16" priority="17">
+    <cfRule type="containsErrors" dxfId="54" priority="55">
       <formula>ISERROR(AF34)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH("p",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="containsErrors" dxfId="37" priority="38">
+      <formula>ISERROR(AF35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",G35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:J35">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
+      <formula>LEN(TRIM(H35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36:AF38">
+    <cfRule type="containsErrors" dxfId="19" priority="20">
+      <formula>ISERROR(AF36)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH("p",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",G36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",G36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G38">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:J36">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(H36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(H37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:J38">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(H38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
